--- a/Excel Workbooks/10Pi6.xlsx
+++ b/Excel Workbooks/10Pi6.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\StatsProject\Excel Workbooks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69996F70-A193-4F62-8622-F00539A9885A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -40,8 +46,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +84,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -124,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,9 +170,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +222,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,14 +415,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,26 +441,26 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.2800837226277487</v>
+        <v>0.28008372262774872</v>
       </c>
       <c r="B2">
-        <v>0.8424382828443202</v>
+        <v>0.84243828284432021</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>-1.141592653589793</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-1.1415926535897929</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.4128344353665927</v>
       </c>
       <c r="B3">
-        <v>0.4499565575610996</v>
+        <v>0.44995655756109959</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
@@ -414,12 +469,12 @@
         <v>-36.33802276324186</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.6074633339559968</v>
+        <v>0.60746333395599683</v>
       </c>
       <c r="B4">
-        <v>0.6579456041837103</v>
+        <v>0.65794560418371029</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -428,60 +483,60 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.7688262844253326</v>
+        <v>0.76882628442533263</v>
       </c>
       <c r="B5">
-        <v>0.6645572327140061</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0.66455723271400613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.5660838751095102</v>
+        <v>0.56608387510951019</v>
       </c>
       <c r="B6">
-        <v>0.140026215863517</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.14002621586351699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.7152276306736906</v>
+        <v>0.71522763067369055</v>
       </c>
       <c r="B7">
-        <v>0.9586581796333353</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.95865817963333533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.950206348082076</v>
+        <v>0.95020634808207605</v>
       </c>
       <c r="B8">
-        <v>0.9476118330929005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.94761183309290054</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.661236792425836</v>
       </c>
       <c r="B9">
-        <v>0.9859818993238528</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.98598189932385283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.6830557572161187</v>
+        <v>0.68305575721611866</v>
       </c>
       <c r="B10">
-        <v>0.9168618297159576</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.91686182971595764</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.6593378905276089</v>
+        <v>0.65933789052760894</v>
       </c>
       <c r="B11">
-        <v>0.5976073550677147</v>
+        <v>0.59760735506771467</v>
       </c>
     </row>
   </sheetData>
